--- a/data/trans_dic/P25C$otrosprofesionales_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P25C$otrosprofesionales_2023-Habitat-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.005625139681726139</v>
+        <v>0.005625139681726138</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.003932767526264895</v>
+        <v>0.003932767526264894</v>
       </c>
     </row>
     <row r="5">
@@ -596,11 +596,11 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03141398541017782</v>
+        <v>0.02840841798113556</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.02337010262525752</v>
+        <v>0.01904933537000457</v>
       </c>
     </row>
     <row r="7">
@@ -648,10 +648,10 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.04318278397318178</v>
+        <v>0.04652464467823537</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0190486344005986</v>
+        <v>0.01692485046619493</v>
       </c>
     </row>
     <row r="10">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.005901771532962478</v>
+        <v>0.005901771532962479</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.02581644189769573</v>
+        <v>0.02581644189769574</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.01261184978873576</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.008369818685939228</v>
+        <v>0.00816352471109324</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.002966623575977505</v>
+        <v>0.0029684479063307</v>
       </c>
     </row>
     <row r="12">
@@ -700,13 +700,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03221312448888118</v>
+        <v>0.02975635615832706</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08835133848449406</v>
+        <v>0.06971105880048048</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02981868057932711</v>
+        <v>0.03207531210341361</v>
       </c>
     </row>
     <row r="13">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.004598380973714858</v>
+        <v>0.006363740802295219</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01183822619177605</v>
+        <v>0.009868546786965027</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.009805285156075703</v>
+        <v>0.01073399149054151</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04393975372975401</v>
+        <v>0.03960054887664748</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05802181332262587</v>
+        <v>0.05815413549494219</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03754464836244333</v>
+        <v>0.03700835310967047</v>
       </c>
     </row>
     <row r="16">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.00745699602364988</v>
+        <v>0.007456996023649879</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.01938400141814601</v>
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.002579617397570494</v>
+        <v>0.003092540472780464</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01064531495830581</v>
+        <v>0.009809179277560988</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.007061578504998904</v>
+        <v>0.006951024410641445</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01599621755940292</v>
+        <v>0.0153951064767929</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03488596073916921</v>
+        <v>0.03427278804969499</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01835334350998698</v>
+        <v>0.01817702244020405</v>
       </c>
     </row>
     <row r="19">
@@ -973,11 +973,11 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>3858</v>
+        <v>3489</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>4106</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="8">
@@ -1042,10 +1042,10 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>3889</v>
+        <v>4190</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>4973</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="12">
@@ -1097,10 +1097,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="15">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5300</v>
+        <v>4896</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7387</v>
+        <v>5829</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7399</v>
+        <v>7959</v>
       </c>
     </row>
     <row r="16">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>928</v>
+        <v>1285</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1650</v>
+        <v>1375</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3346</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="19">
@@ -1183,13 +1183,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>8870</v>
+        <v>7994</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>8086</v>
+        <v>8105</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>12811</v>
+        <v>12628</v>
       </c>
     </row>
     <row r="20">
@@ -1238,13 +1238,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1703</v>
+        <v>2042</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3895</v>
+        <v>3589</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>7246</v>
+        <v>7133</v>
       </c>
     </row>
     <row r="23">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>10561</v>
+        <v>10164</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>12764</v>
+        <v>12540</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>18833</v>
+        <v>18652</v>
       </c>
     </row>
     <row r="24">
